--- a/Energy/Automatic fan/automatic_fan_master.xlsx
+++ b/Energy/Automatic fan/automatic_fan_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Objective</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Relay</t>
   </si>
   <si>
-    <t>Fan(?)</t>
-  </si>
-  <si>
     <t>Arduino UNO</t>
   </si>
   <si>
@@ -85,13 +82,94 @@
   </si>
   <si>
     <t>Questions</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>Connect DHT 11 to the Arduino UNO</t>
+  </si>
+  <si>
+    <t>Connect relay to Arduino UNO</t>
+  </si>
+  <si>
+    <t>Connect relay to fan</t>
+  </si>
+  <si>
+    <t>Upload code</t>
+  </si>
+  <si>
+    <t>DHT11 is a humidity and temperature sensor which gives calibrated digital output.</t>
+  </si>
+  <si>
+    <t>Make connections as follows-</t>
+  </si>
+  <si>
+    <t>Vcc of DHT11 to 5V of Arduino UNO)</t>
+  </si>
+  <si>
+    <t>GND of DHT11 to GND of Arduino UNO</t>
+  </si>
+  <si>
+    <t>Data pin of DHT11 to D2(digital pin) of Arduino UNO</t>
+  </si>
+  <si>
+    <t>Relays are electrically operated switches. They are used when high power circuit(pump) is controlled using a low power circuit(Arduino UNO).</t>
+  </si>
+  <si>
+    <t>Relay pins(3)- Vcc, GND, data pin</t>
+  </si>
+  <si>
+    <t>Data pin to D8(digital pin on Arduino UNO)</t>
+  </si>
+  <si>
+    <t>Vcc of relay to 5V of Arduino UNO)</t>
+  </si>
+  <si>
+    <t>GND of relay to GND of Arduino UNO</t>
+  </si>
+  <si>
+    <t>Code1</t>
+  </si>
+  <si>
+    <t>DHT11 pins(3): VCC, GND, Data</t>
+  </si>
+  <si>
+    <t>Ideal temperature is 23 C</t>
+  </si>
+  <si>
+    <t>Ideal humidity is 40%</t>
+  </si>
+  <si>
+    <t>Relay contacts(3)-Normally open(NO),Normally closed(NC),Common(COM)</t>
+  </si>
+  <si>
+    <t>COM to power supply</t>
+  </si>
+  <si>
+    <t>NC to fan</t>
+  </si>
+  <si>
+    <t>Final code</t>
+  </si>
+  <si>
+    <t>DHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test the component, install the DHT library and upload the code atttached. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +189,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -147,6 +232,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -454,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,12 +557,12 @@
     <col min="2" max="2" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -479,32 +570,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -519,7 +625,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,13 +653,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>470</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,13 +667,13 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>129</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,7 +687,7 @@
         <v>150</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -604,22 +710,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -628,13 +735,143 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D19" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Energy/Automatic fan/automatic_fan_master.xlsx
+++ b/Energy/Automatic fan/automatic_fan_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Objective</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>fan</t>
-  </si>
-  <si>
     <t>Connect DHT 11 to the Arduino UNO</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Connect relay to fan</t>
   </si>
   <si>
-    <t>Upload code</t>
-  </si>
-  <si>
     <t>DHT11 is a humidity and temperature sensor which gives calibrated digital output.</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>GND of relay to GND of Arduino UNO</t>
   </si>
   <si>
-    <t>Code1</t>
-  </si>
-  <si>
     <t>DHT11 pins(3): VCC, GND, Data</t>
   </si>
   <si>
@@ -156,13 +147,22 @@
     <t>NC to fan</t>
   </si>
   <si>
-    <t>Final code</t>
-  </si>
-  <si>
     <t>DHT</t>
   </si>
   <si>
-    <t xml:space="preserve">To test the component, install the DHT library and upload the code atttached. </t>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Code002</t>
+  </si>
+  <si>
+    <t>Code001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test the component, install the DHT library and upload code001. </t>
+  </si>
+  <si>
+    <t>Upload code002</t>
   </si>
 </sst>
 </file>
@@ -545,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,12 +557,12 @@
     <col min="2" max="2" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -570,18 +570,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -589,20 +586,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -610,9 +610,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -712,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,44 +749,44 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -791,35 +794,35 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -827,25 +830,25 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,18 +856,18 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
